--- a/biology/Médecine/Hôpital_Saint-Joseph_(Marseille)/Hôpital_Saint-Joseph_(Marseille).xlsx
+++ b/biology/Médecine/Hôpital_Saint-Joseph_(Marseille)/Hôpital_Saint-Joseph_(Marseille).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Saint-Joseph_(Marseille)</t>
+          <t>Hôpital_Saint-Joseph_(Marseille)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Hôpital Saint-Joseph est un hôpital généraliste, privé à but non lucratif du 8e arrondissement de Marseille.
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Saint-Joseph_(Marseille)</t>
+          <t>Hôpital_Saint-Joseph_(Marseille)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,17 +527,124 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Créé par l’abbé Jean-Baptiste Fouque (1851-1926) en 1919 pour prendre en charge tous les malades sans discrimination, l’Hôpital Saint Joseph a su se développer pour devenir aujourd’hui le Groupe Saint Joseph qui regroupe la Fondation Hôpital Saint Joseph et l’Association Hôpital Saint Joseph. 
-Fondation Hôpital Saint Joseph
-La Fondation Hôpital Saint Joseph poursuit l’œuvre originelle de l’abbé Fouque, en soutenant et développant des œuvres médicales, médico-sociales et sociales, concourant au financement des projets de l’Hôpital et aidant au développement de la Recherche Médicale. En 1924, l’Association Hospitalière du Prado a été reconnue d’utilité publique. L’Hôpital accueillait alors « toutes les religions, toutes les classes, toutes les races, car on y prend tous ceux qui souffrent ». L’abbé Fouque décéda en 1926 dans son Hôpital. Ses valeurs continuent de perdurer au sein de l’établissement, et chacun conserve en mémoire sa devise « Omnia possibilia sunt credenti » (« Tout est possible à celui qui croit »). En 1984, l’Association Hospitalière du Prado devient la Fondation Hôpital Saint Joseph. 
-Association Hôpital Saint Joseph
-L’Association Hôpital Saint Joseph se compose de l’Hôpital Saint Joseph, ainsi que d’une autre œuvre de l’abbé Fouque : l’établissement Fernande Berger. Fernande Berger rencontra l’abbé Fouque en 1921 alors qu’il venait de créer l’Hôpital Saint Joseph. Elle souhaita alors le soutenir dans ses actions et lui faire don de son domaine.  Au départ clinique médicale pour femmes tuberculeuses, le domaine devient en 1964 un établissement de moyen séjour pour convalescence, au départ réservé aux femmes, puis mixte. Il deviendra « La Maison de soins de suite et de réadaptation » en 1991, puis l’Établissement de Soins de Suite et de Réadaptation Fernande Berger. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Hôpital_Saint-Joseph_(Marseille)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%B4pital_Saint-Joseph_(Marseille)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Fondation Hôpital Saint Joseph</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Fondation Hôpital Saint Joseph poursuit l’œuvre originelle de l’abbé Fouque, en soutenant et développant des œuvres médicales, médico-sociales et sociales, concourant au financement des projets de l’Hôpital et aidant au développement de la Recherche Médicale. En 1924, l’Association Hospitalière du Prado a été reconnue d’utilité publique. L’Hôpital accueillait alors « toutes les religions, toutes les classes, toutes les races, car on y prend tous ceux qui souffrent ». L’abbé Fouque décéda en 1926 dans son Hôpital. Ses valeurs continuent de perdurer au sein de l’établissement, et chacun conserve en mémoire sa devise « Omnia possibilia sunt credenti » (« Tout est possible à celui qui croit »). En 1984, l’Association Hospitalière du Prado devient la Fondation Hôpital Saint Joseph. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hôpital_Saint-Joseph_(Marseille)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%B4pital_Saint-Joseph_(Marseille)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Association Hôpital Saint Joseph</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’Association Hôpital Saint Joseph se compose de l’Hôpital Saint Joseph, ainsi que d’une autre œuvre de l’abbé Fouque : l’établissement Fernande Berger. Fernande Berger rencontra l’abbé Fouque en 1921 alors qu’il venait de créer l’Hôpital Saint Joseph. Elle souhaita alors le soutenir dans ses actions et lui faire don de son domaine.  Au départ clinique médicale pour femmes tuberculeuses, le domaine devient en 1964 un établissement de moyen séjour pour convalescence, au départ réservé aux femmes, puis mixte. Il deviendra « La Maison de soins de suite et de réadaptation » en 1991, puis l’Établissement de Soins de Suite et de Réadaptation Fernande Berger. 
 En 2003, l’Hôpital prend la forme d’une « Association Hôpital Saint Joseph ». La Fondation Hôpital Saint Joseph perdure, soulagée de la gestion hospitalière pour se consacrer pleinement au développement des actions de solidarité et de recherche, suivant des principes de charité chrétienne et de fraternité de son fondateur.
 Depuis lors, l’Association gère les activités sanitaires et de formation de l’Hôpital. Elles sont réunies depuis 2010 au sein du Groupe Saint Joseph. Le Groupe Saint Joseph réunit donc la Fondation et l’Association Hôpital Saint Joseph, chacune ayant un rôle déterminé.
-Partenaires du Groupe Saint Joseph
-Le Groupe Saint Joseph souhaite se développer afin de pouvoir mieux préserver la volonté de l’abbé Fouque, en pouvant offrir un ensemble complet de soins à ses patients.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hôpital_Saint-Joseph_(Marseille)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%B4pital_Saint-Joseph_(Marseille)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Partenaires du Groupe Saint Joseph</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Groupe Saint Joseph souhaite se développer afin de pouvoir mieux préserver la volonté de l’abbé Fouque, en pouvant offrir un ensemble complet de soins à ses patients.
 Afin de mieux prendre en compte les personnes âgées, l’Hôpital Saint Joseph s’est rapproché de deux EHPAD : Saint Joseph-AREGE et Saint Joseph-La Salette.
 Dans le domaine de la psychiatrie, domaine jusque-là non couvert par l’Hôpital, Sainte Marthe est venue compléter l’offre de soins du Groupe.
 Au niveau social, l’Hôpital Saint Joseph travaille avec l’association AFOR qui gère trois centres d’hébergement et de réinsertion sociale : le centre Marie Louise, la Maison d’Ariane, et le centre Maternel La Martine. 
